--- a/Wa-tor_Execution_Times.xlsx
+++ b/Wa-tor_Execution_Times.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Diarmuid\Desktop\Wa-tor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diarm\Desktop\Wa-tor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932CA125-1A7A-432C-AC7D-2CD0F26262D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3668C219-5BD9-49B3-9C23-539FD139F468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{26A5ACDC-339B-4297-8664-9AE5745ADE76}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{26A5ACDC-339B-4297-8664-9AE5745ADE76}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Threads</t>
+  </si>
+  <si>
+    <t>Test Machine Specifications</t>
+  </si>
+  <si>
+    <t>AMD Ryzen 7 5825U</t>
+  </si>
+  <si>
+    <t>2000 Mhz</t>
+  </si>
+  <si>
+    <t>8 Cores</t>
+  </si>
+  <si>
+    <t>16 Logical Processors</t>
+  </si>
+  <si>
+    <t>Windows 11 10.0.26100</t>
+  </si>
+  <si>
+    <t>Run1</t>
+  </si>
+  <si>
+    <t>Run2</t>
+  </si>
+  <si>
+    <t>Run3</t>
+  </si>
+  <si>
+    <t>Run4</t>
+  </si>
+  <si>
+    <t>Run5</t>
+  </si>
+  <si>
+    <t>Run6</t>
+  </si>
+  <si>
+    <t>Run7</t>
+  </si>
+  <si>
+    <t>Run8</t>
+  </si>
+  <si>
+    <t>Run9</t>
+  </si>
+  <si>
+    <t>Run10</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
@@ -82,13 +133,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -424,40 +484,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5488A147-773B-419F-A039-60051B1C2F31}">
-  <dimension ref="F6:F10"/>
+  <dimension ref="A5:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="6" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F6" s="2" t="s">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="F5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="7" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F7" s="1">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="E6" s="1">
         <v>1</v>
       </c>
+      <c r="F6" s="1">
+        <v>100.52</v>
+      </c>
+      <c r="G6" s="1">
+        <v>100.47</v>
+      </c>
+      <c r="H6" s="1">
+        <v>100.47</v>
+      </c>
+      <c r="I6" s="1">
+        <v>100.5</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
     </row>
-    <row r="8" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F8" s="1">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="E7" s="1">
         <v>2</v>
       </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
     </row>
-    <row r="9" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F9" s="1">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
     </row>
-    <row r="10" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F10" s="1">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="E9" s="1">
         <v>8</v>
       </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:C10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Wa-tor_Execution_Times.xlsx
+++ b/Wa-tor_Execution_Times.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diarm\Desktop\Wa-tor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3668C219-5BD9-49B3-9C23-539FD139F468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0034F31-DC83-4E5B-9885-7B02C7BA979F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{26A5ACDC-339B-4297-8664-9AE5745ADE76}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Threads</t>
   </si>
@@ -91,12 +91,60 @@
   <si>
     <t>Average</t>
   </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>numShark</t>
+  </si>
+  <si>
+    <t>numFish</t>
+  </si>
+  <si>
+    <t>fishBreed</t>
+  </si>
+  <si>
+    <t>sharkBreed</t>
+  </si>
+  <si>
+    <t>starve</t>
+  </si>
+  <si>
+    <t>energyGain</t>
+  </si>
+  <si>
+    <t>width</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>Sequential</t>
+  </si>
+  <si>
+    <t>Absolute Speedup</t>
+  </si>
+  <si>
+    <t>Relative Speedup</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>All runs are measured in seconds</t>
+  </si>
+  <si>
+    <t>Efficiency</t>
+  </si>
+  <si>
+    <t>Wa-Tor Metrics - Diarmuid O'Neill - C00282898 - 24/11/2025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +155,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -133,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,14 +204,27 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -165,6 +241,3190 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of Threads vs Average Execution Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$6:$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Sequential</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$6:$P$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>103.407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.62899999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>57.613999999999997</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.765000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39.388999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CC76-4177-91E5-4FC17F6182F3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="681964816"/>
+        <c:axId val="681962416"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="681964816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IE" baseline="0"/>
+                  <a:t> of Threads</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-IE"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="681962416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="681962416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Average</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IE" baseline="0"/>
+                  <a:t> Execution Time (seconds)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="681964816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-IE"/>
+              <a:t>Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IE" baseline="0"/>
+              <a:t> of Threads vs Speedup</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IE"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$5:$Q$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Absolute Speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$7:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$7:$Q$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0276063560206303</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7948241746797653</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.3099966491678767</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.625276092310036</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EFE5-4ECB-8A5E-94860AF741ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$5:$R$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Relative Speedup</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$E$7:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$7:$R$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7466067275315027</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2479392382441636</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5547487877326156</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EFE5-4ECB-8A5E-94860AF741ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="804075840"/>
+        <c:axId val="804076320"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="804075840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-IE" baseline="0"/>
+                  <a:t> of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="804076320"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="804076320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Speedup</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="804075840"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Threads vs Efficiency</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$5:$S$6</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Efficiency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$7:$E$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$S$7:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87330336376575135</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56198480956104091</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31934359846657695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2338-431B-BD93-1C7DD9C918B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="647748224"/>
+        <c:axId val="647746784"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="647748224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Number of Threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647746784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="647746784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-IE"/>
+                  <a:t>Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="647748224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B50475A-0DE6-B3B7-EF26-975294E0626C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B1872A8-3A3D-9C50-461F-4A83E2EA10E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>179070</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7328FDFC-7610-2F85-460D-44A47C404FCF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -484,15 +3744,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5488A147-773B-419F-A039-60051B1C2F31}">
-  <dimension ref="A5:P10"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.21875" customWidth="1"/>
+    <col min="17" max="17" width="15.77734375" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>1</v>
       </c>
@@ -501,149 +3795,432 @@
       <c r="E5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="Q5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="E6" s="1">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="8">
+        <v>102.33</v>
+      </c>
+      <c r="G6" s="8">
+        <v>106.49</v>
+      </c>
+      <c r="H6" s="8">
+        <v>103.52</v>
+      </c>
+      <c r="I6" s="8">
+        <v>101.97</v>
+      </c>
+      <c r="J6" s="8">
+        <v>104.55</v>
+      </c>
+      <c r="K6" s="8">
+        <v>102.24</v>
+      </c>
+      <c r="L6" s="8">
+        <v>102.59</v>
+      </c>
+      <c r="M6" s="8">
+        <v>102.75</v>
+      </c>
+      <c r="N6" s="8">
+        <v>103.2</v>
+      </c>
+      <c r="O6" s="8">
+        <v>104.43</v>
+      </c>
+      <c r="P6" s="8">
+        <f>AVERAGE(F6:O6)</f>
+        <v>103.407</v>
+      </c>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="8"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="E7" s="2">
         <v>1</v>
       </c>
-      <c r="F6" s="1">
-        <v>100.52</v>
-      </c>
-      <c r="G6" s="1">
-        <v>100.47</v>
-      </c>
-      <c r="H6" s="1">
-        <v>100.47</v>
-      </c>
-      <c r="I6" s="1">
+      <c r="F7" s="1">
+        <v>100.62</v>
+      </c>
+      <c r="G7" s="1">
+        <v>100.64</v>
+      </c>
+      <c r="H7" s="1">
+        <v>100.62</v>
+      </c>
+      <c r="I7" s="1">
         <v>100.5</v>
       </c>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="J7" s="1">
+        <v>100.49</v>
+      </c>
+      <c r="K7" s="1">
+        <v>100.64</v>
+      </c>
+      <c r="L7" s="1">
+        <v>100.75</v>
+      </c>
+      <c r="M7" s="1">
+        <v>100.67</v>
+      </c>
+      <c r="N7" s="1">
+        <v>100.75</v>
+      </c>
+      <c r="O7" s="1">
+        <v>100.61</v>
+      </c>
+      <c r="P7" s="1">
+        <f>AVERAGE(F7:O7)</f>
+        <v>100.62899999999999</v>
+      </c>
+      <c r="Q7">
+        <f>P6/P7</f>
+        <v>1.0276063560206303</v>
+      </c>
+      <c r="R7">
+        <f>P7/P7</f>
+        <v>1</v>
+      </c>
+      <c r="S7">
+        <f>R7/E7</f>
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="E7" s="1">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="E8" s="2">
         <v>2</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
+      <c r="F8" s="1">
+        <v>57.92</v>
+      </c>
+      <c r="G8" s="1">
+        <v>58.72</v>
+      </c>
+      <c r="H8" s="1">
+        <v>58.89</v>
+      </c>
+      <c r="I8" s="1">
+        <v>57.59</v>
+      </c>
+      <c r="J8" s="1">
+        <v>57.16</v>
+      </c>
+      <c r="K8" s="1">
+        <v>56.74</v>
+      </c>
+      <c r="L8" s="1">
+        <v>57.29</v>
+      </c>
+      <c r="M8" s="1">
+        <v>58</v>
+      </c>
+      <c r="N8" s="1">
+        <v>56.96</v>
+      </c>
+      <c r="O8" s="1">
+        <v>56.87</v>
+      </c>
+      <c r="P8" s="1">
+        <f>AVERAGE(F8:O8)</f>
+        <v>57.613999999999997</v>
+      </c>
+      <c r="Q8">
+        <f>P6/P8</f>
+        <v>1.7948241746797653</v>
+      </c>
+      <c r="R8">
+        <f>P7/P8</f>
+        <v>1.7466067275315027</v>
+      </c>
+      <c r="S8">
+        <f>R8/E8</f>
+        <v>0.87330336376575135</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="E9" s="2">
         <v>4</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="E8" s="1">
+      <c r="F9" s="1">
+        <v>44.85</v>
+      </c>
+      <c r="G9" s="1">
+        <v>44.61</v>
+      </c>
+      <c r="H9" s="1">
+        <v>44.87</v>
+      </c>
+      <c r="I9" s="1">
+        <v>45.32</v>
+      </c>
+      <c r="J9" s="1">
+        <v>44.55</v>
+      </c>
+      <c r="K9" s="1">
+        <v>44.89</v>
+      </c>
+      <c r="L9" s="1">
+        <v>44.72</v>
+      </c>
+      <c r="M9" s="1">
+        <v>44.69</v>
+      </c>
+      <c r="N9" s="1">
+        <v>44.29</v>
+      </c>
+      <c r="O9" s="1">
+        <v>44.86</v>
+      </c>
+      <c r="P9" s="1">
+        <f>AVERAGE(F9:O9)</f>
+        <v>44.765000000000001</v>
+      </c>
+      <c r="Q9">
+        <f>P6/P9</f>
+        <v>2.3099966491678767</v>
+      </c>
+      <c r="R9">
+        <f>P7/P9</f>
+        <v>2.2479392382441636</v>
+      </c>
+      <c r="S9">
+        <f>R9/E9</f>
+        <v>0.56198480956104091</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="E10" s="2">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>39.53</v>
+      </c>
+      <c r="G10" s="1">
+        <v>39.369999999999997</v>
+      </c>
+      <c r="H10" s="1">
+        <v>39.75</v>
+      </c>
+      <c r="I10" s="1">
+        <v>39.659999999999997</v>
+      </c>
+      <c r="J10" s="1">
+        <v>39.29</v>
+      </c>
+      <c r="K10" s="1">
+        <v>39.25</v>
+      </c>
+      <c r="L10" s="1">
+        <v>39.35</v>
+      </c>
+      <c r="M10" s="1">
+        <v>39.31</v>
+      </c>
+      <c r="N10" s="1">
+        <v>39.15</v>
+      </c>
+      <c r="O10" s="1">
+        <v>39.229999999999997</v>
+      </c>
+      <c r="P10" s="1">
+        <f>AVERAGE(F10:O10)</f>
+        <v>39.388999999999996</v>
+      </c>
+      <c r="Q10">
+        <f>P6/P10</f>
+        <v>2.625276092310036</v>
+      </c>
+      <c r="R10">
+        <f>P7/P10</f>
+        <v>2.5547487877326156</v>
+      </c>
+      <c r="S10">
+        <f>R10/E10</f>
+        <v>0.31934359846657695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17">
         <v>4</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="E9" s="1">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="17">
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:C10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>